--- a/Data/Untitled.xlsx
+++ b/Data/Untitled.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>symbol</t>
   </si>
@@ -34,7 +34,7 @@
     <t>triggerprice</t>
   </si>
   <si>
-    <t>LUPIN</t>
+    <t>NITCO</t>
   </si>
   <si>
     <t>NSE</t>
@@ -46,169 +46,172 @@
     <t>DAY</t>
   </si>
   <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>HEROMOTOCO</t>
-  </si>
-  <si>
-    <t>ONGC</t>
-  </si>
-  <si>
-    <t>BRITANNIA</t>
-  </si>
-  <si>
-    <t>NTPC</t>
-  </si>
-  <si>
-    <t>WIPRO</t>
-  </si>
-  <si>
-    <t>KOTAKBANK</t>
-  </si>
-  <si>
-    <t>BAJFINANCE</t>
-  </si>
-  <si>
-    <t>TITAN</t>
-  </si>
-  <si>
-    <t>TATACONSUM</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
-  </si>
-  <si>
-    <t>BAJAJFINSV</t>
-  </si>
-  <si>
-    <t>GRASIM</t>
-  </si>
-  <si>
-    <t>TATASTEEL</t>
-  </si>
-  <si>
-    <t>APOLLOTYRE</t>
-  </si>
-  <si>
-    <t>ASHOKLEY</t>
-  </si>
-  <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>BANKBARODA</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>BURGERKING</t>
-  </si>
-  <si>
-    <t>CHALET</t>
-  </si>
-  <si>
-    <t>EXIDEIND</t>
-  </si>
-  <si>
-    <t>GAIL</t>
-  </si>
-  <si>
-    <t>GET&amp;D</t>
-  </si>
-  <si>
-    <t>GODREJPROP</t>
-  </si>
-  <si>
-    <t>IOC</t>
-  </si>
-  <si>
-    <t>IRFC</t>
-  </si>
-  <si>
-    <t>NBCC</t>
-  </si>
-  <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>PNB</t>
-  </si>
-  <si>
-    <t>RVNL</t>
-  </si>
-  <si>
-    <t>SETFNIFBK</t>
-  </si>
-  <si>
-    <t>SJVN</t>
-  </si>
-  <si>
-    <t>SONATSOFTW</t>
-  </si>
-  <si>
-    <t>SPICEJET</t>
-  </si>
-  <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>UJAAS</t>
-  </si>
-  <si>
-    <t>VGUARD</t>
-  </si>
-  <si>
-    <t>VOLTAS</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>NESTLEIND</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>ULTRACEMCO</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>HDFCLIFE</t>
-  </si>
-  <si>
-    <t>COALINDIA</t>
-  </si>
-  <si>
-    <t>MARUTI</t>
-  </si>
-  <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
-    <t>INDUSINDBK</t>
-  </si>
-  <si>
-    <t>M&amp;M</t>
-  </si>
-  <si>
-    <t>RELIANCE</t>
-  </si>
-  <si>
-    <t>TECHM</t>
+    <t>APCOTEXIND</t>
+  </si>
+  <si>
+    <t>TNPETRO</t>
+  </si>
+  <si>
+    <t>JAYAGROGN</t>
+  </si>
+  <si>
+    <t>BLUEDART</t>
+  </si>
+  <si>
+    <t>COROMANDEL</t>
+  </si>
+  <si>
+    <t>GHCL</t>
+  </si>
+  <si>
+    <t>TARSONS</t>
+  </si>
+  <si>
+    <t>ALPA</t>
+  </si>
+  <si>
+    <t>BEDMUTHA</t>
+  </si>
+  <si>
+    <t>EMAMILTD</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>TVTODAY</t>
+  </si>
+  <si>
+    <t>NOCIL</t>
+  </si>
+  <si>
+    <t>BOMDYEING</t>
+  </si>
+  <si>
+    <t>DPABHUSHAN</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>SHAKTIPUMP</t>
+  </si>
+  <si>
+    <t>SHAILY</t>
+  </si>
+  <si>
+    <t>HEXATRADEX</t>
+  </si>
+  <si>
+    <t>QUESS</t>
+  </si>
+  <si>
+    <t>EXCEL</t>
+  </si>
+  <si>
+    <t>VIVIMEDLAB</t>
+  </si>
+  <si>
+    <t>RELAXO</t>
+  </si>
+  <si>
+    <t>OCCL</t>
+  </si>
+  <si>
+    <t>GODREJAGRO</t>
+  </si>
+  <si>
+    <t>DCMSHRIRAM</t>
+  </si>
+  <si>
+    <t>PAYTM</t>
+  </si>
+  <si>
+    <t>NGIL</t>
+  </si>
+  <si>
+    <t>CHAMBLFERT</t>
+  </si>
+  <si>
+    <t>MANALIPETC</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
+    <t>BANDHANBNK</t>
+  </si>
+  <si>
+    <t>LIQUIDBEES</t>
+  </si>
+  <si>
+    <t>BALRAMCHIN</t>
+  </si>
+  <si>
+    <t>MARICO</t>
+  </si>
+  <si>
+    <t>DHAMPURSUG</t>
+  </si>
+  <si>
+    <t>SHALPAINTS</t>
+  </si>
+  <si>
+    <t>SABEVENTS</t>
+  </si>
+  <si>
+    <t>MANGCHEFER</t>
+  </si>
+  <si>
+    <t>STARHEALTH</t>
+  </si>
+  <si>
+    <t>GANGAFORGE</t>
+  </si>
+  <si>
+    <t>MARALOVER</t>
+  </si>
+  <si>
+    <t>LPDC</t>
+  </si>
+  <si>
+    <t>MTEDUCARE</t>
+  </si>
+  <si>
+    <t>IOLCP</t>
+  </si>
+  <si>
+    <t>RESPONIND</t>
+  </si>
+  <si>
+    <t>SMSLIFE</t>
+  </si>
+  <si>
+    <t>RANASUG</t>
+  </si>
+  <si>
+    <t>RGL</t>
+  </si>
+  <si>
+    <t>SHREEPUSHK</t>
+  </si>
+  <si>
+    <t>GNFC</t>
+  </si>
+  <si>
+    <t>DMCC</t>
+  </si>
+  <si>
+    <t>MAFANG</t>
+  </si>
+  <si>
+    <t>SUNDRMBRAK</t>
+  </si>
+  <si>
+    <t>LAGNAM</t>
   </si>
   <si>
     <t>CIPLA</t>
@@ -227,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -242,6 +245,11 @@
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -259,12 +267,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -287,13 +295,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -303,11 +348,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -328,6 +382,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
@@ -1427,1379 +1482,1379 @@
       <c r="A2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4">
-        <v>800</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="B2" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>800</v>
+      </c>
+      <c r="G2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4">
-        <v>800</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="B3" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5">
+        <v>800</v>
+      </c>
+      <c r="G3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>800</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="B4" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>800</v>
+      </c>
+      <c r="G4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="3">
+      <c r="A5" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4">
-        <v>800</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="B5" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <v>800</v>
+      </c>
+      <c r="G5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="3">
+      <c r="A6" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4">
-        <v>800</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="B6" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>800</v>
+      </c>
+      <c r="G6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="3">
+      <c r="A7" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4">
-        <v>800</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="B7" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <v>800</v>
+      </c>
+      <c r="G7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="3">
+      <c r="A8" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4">
-        <v>800</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="B8" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>800</v>
+      </c>
+      <c r="G8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4">
-        <v>800</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="B9" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>800</v>
+      </c>
+      <c r="G9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="B10" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4">
-        <v>800</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="B10" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>800</v>
+      </c>
+      <c r="G10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="3">
+      <c r="A11" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B11" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4">
-        <v>800</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="B11" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <v>800</v>
+      </c>
+      <c r="G11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="3">
+      <c r="A12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="B12" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4">
-        <v>800</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="B12" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>800</v>
+      </c>
+      <c r="G12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="3">
+      <c r="A13" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="B13" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4">
-        <v>800</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="B13" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
+        <v>800</v>
+      </c>
+      <c r="G13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="3">
+      <c r="A14" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="B14" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4">
-        <v>800</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="B14" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5">
+        <v>800</v>
+      </c>
+      <c r="G14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="3">
+      <c r="A15" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="B15" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4">
-        <v>800</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="B15" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
+        <v>800</v>
+      </c>
+      <c r="G15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="3">
+      <c r="A16" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="B16" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4">
-        <v>800</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="B16" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <v>800</v>
+      </c>
+      <c r="G16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="B17" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4">
-        <v>800</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="B17" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5">
+        <v>800</v>
+      </c>
+      <c r="G17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="3">
+      <c r="A18" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="B18" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4">
-        <v>800</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="B18" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5">
+        <v>800</v>
+      </c>
+      <c r="G18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="3">
+      <c r="A19" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="B19" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4">
-        <v>800</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="B19" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5">
+        <v>800</v>
+      </c>
+      <c r="G19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="3">
+      <c r="A20" t="s" s="6">
         <v>28</v>
       </c>
-      <c r="B20" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4">
-        <v>800</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="B20" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5">
+        <v>800</v>
+      </c>
+      <c r="G20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="3">
+      <c r="A21" t="s" s="6">
         <v>29</v>
       </c>
-      <c r="B21" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4">
-        <v>800</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="B21" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5">
+        <v>800</v>
+      </c>
+      <c r="G21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="3">
+      <c r="A22" t="s" s="6">
         <v>30</v>
       </c>
-      <c r="B22" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4">
-        <v>800</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="B22" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5">
+        <v>800</v>
+      </c>
+      <c r="G22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="3">
+      <c r="A23" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="B23" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4">
-        <v>800</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="B23" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5">
+        <v>800</v>
+      </c>
+      <c r="G23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="B24" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4">
-        <v>800</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="B24" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5">
+        <v>800</v>
+      </c>
+      <c r="G24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="3">
+      <c r="A25" t="s" s="6">
         <v>33</v>
       </c>
-      <c r="B25" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4">
-        <v>800</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="B25" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5">
+        <v>800</v>
+      </c>
+      <c r="G25" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="3">
+      <c r="A26" t="s" s="6">
         <v>34</v>
       </c>
-      <c r="B26" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F26" s="4">
-        <v>800</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="B26" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5">
+        <v>800</v>
+      </c>
+      <c r="G26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="3">
+      <c r="A27" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B27" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4">
-        <v>800</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="B27" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5">
+        <v>800</v>
+      </c>
+      <c r="G27" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="3">
+      <c r="A28" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="B28" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4">
-        <v>800</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="B28" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5">
+        <v>800</v>
+      </c>
+      <c r="G28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="3">
+      <c r="A29" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B29" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F29" s="4">
-        <v>800</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="B29" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5">
+        <v>800</v>
+      </c>
+      <c r="G29" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="3">
+      <c r="A30" t="s" s="6">
         <v>38</v>
       </c>
-      <c r="B30" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4">
-        <v>800</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="B30" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5">
+        <v>800</v>
+      </c>
+      <c r="G30" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="3">
+      <c r="A31" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="B31" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4">
-        <v>800</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="B31" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5">
+        <v>800</v>
+      </c>
+      <c r="G31" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="3">
+      <c r="A32" t="s" s="6">
         <v>40</v>
       </c>
-      <c r="B32" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F32" s="4">
-        <v>800</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="B32" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5">
+        <v>800</v>
+      </c>
+      <c r="G32" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="3">
+      <c r="A33" t="s" s="6">
         <v>41</v>
       </c>
-      <c r="B33" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F33" s="4">
-        <v>800</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="B33" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5">
+        <v>800</v>
+      </c>
+      <c r="G33" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F34" s="4">
-        <v>800</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="A34" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5">
+        <v>800</v>
+      </c>
+      <c r="G34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F35" s="4">
-        <v>800</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="A35" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5">
+        <v>800</v>
+      </c>
+      <c r="G35" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4">
-        <v>800</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="A36" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5">
+        <v>800</v>
+      </c>
+      <c r="G36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4">
-        <v>800</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="A37" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5">
+        <v>800</v>
+      </c>
+      <c r="G37" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4">
-        <v>800</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="A38" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5">
+        <v>800</v>
+      </c>
+      <c r="G38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F39" s="4">
-        <v>800</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="A39" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5">
+        <v>800</v>
+      </c>
+      <c r="G39" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4">
-        <v>800</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="A40" t="s" s="6">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F40" s="5">
+        <v>800</v>
+      </c>
+      <c r="G40" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F41" s="4">
-        <v>800</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="A41" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F41" s="5">
+        <v>800</v>
+      </c>
+      <c r="G41" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F42" s="4">
-        <v>800</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="A42" t="s" s="6">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F42" s="5">
+        <v>800</v>
+      </c>
+      <c r="G42" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F43" s="4">
-        <v>800</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="A43" t="s" s="6">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F43" s="5">
+        <v>800</v>
+      </c>
+      <c r="G43" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F44" s="4">
-        <v>800</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="A44" t="s" s="6">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F44" s="5">
+        <v>800</v>
+      </c>
+      <c r="G44" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F45" s="4">
-        <v>800</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="A45" t="s" s="6">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F45" s="5">
+        <v>800</v>
+      </c>
+      <c r="G45" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="B46" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F46" s="4">
-        <v>800</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="A46" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F46" s="5">
+        <v>800</v>
+      </c>
+      <c r="G46" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F47" s="4">
-        <v>800</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="A47" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F47" s="5">
+        <v>800</v>
+      </c>
+      <c r="G47" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F48" s="4">
-        <v>800</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="A48" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F48" s="5">
+        <v>800</v>
+      </c>
+      <c r="G48" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F49" s="4">
-        <v>800</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="A49" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F49" s="5">
+        <v>800</v>
+      </c>
+      <c r="G49" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="3">
-        <v>57</v>
-      </c>
-      <c r="B50" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F50" s="4">
-        <v>800</v>
-      </c>
-      <c r="G50" s="4">
+      <c r="A50" t="s" s="6">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F50" s="5">
+        <v>800</v>
+      </c>
+      <c r="G50" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="51" ht="14.7" customHeight="1">
-      <c r="A51" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="B51" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F51" s="4">
-        <v>800</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="A51" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F51" s="5">
+        <v>800</v>
+      </c>
+      <c r="G51" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="52" ht="14.7" customHeight="1">
-      <c r="A52" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="B52" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F52" s="4">
-        <v>800</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="A52" t="s" s="6">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F52" s="5">
+        <v>800</v>
+      </c>
+      <c r="G52" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="53" ht="14.7" customHeight="1">
-      <c r="A53" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="B53" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F53" s="4">
-        <v>800</v>
-      </c>
-      <c r="G53" s="4">
+      <c r="A53" t="s" s="6">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F53" s="5">
+        <v>800</v>
+      </c>
+      <c r="G53" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="54" ht="14.7" customHeight="1">
-      <c r="A54" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F54" s="4">
-        <v>800</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="A54" t="s" s="6">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F54" s="5">
+        <v>800</v>
+      </c>
+      <c r="G54" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="55" ht="14.7" customHeight="1">
-      <c r="A55" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="B55" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F55" s="4">
-        <v>800</v>
-      </c>
-      <c r="G55" s="4">
+      <c r="A55" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F55" s="5">
+        <v>800</v>
+      </c>
+      <c r="G55" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="56" ht="14.7" customHeight="1">
-      <c r="A56" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="B56" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F56" s="4">
-        <v>800</v>
-      </c>
-      <c r="G56" s="4">
+      <c r="A56" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F56" s="5">
+        <v>800</v>
+      </c>
+      <c r="G56" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="57" ht="14.7" customHeight="1">
-      <c r="A57" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F57" s="4">
-        <v>800</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="A57" t="s" s="6">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F57" s="5">
+        <v>800</v>
+      </c>
+      <c r="G57" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="58" ht="14.7" customHeight="1">
-      <c r="A58" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="B58" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F58" s="4">
-        <v>800</v>
-      </c>
-      <c r="G58" s="4">
+      <c r="A58" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F58" s="5">
+        <v>800</v>
+      </c>
+      <c r="G58" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="59" ht="14.7" customHeight="1">
-      <c r="A59" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="B59" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F59" s="4">
-        <v>800</v>
-      </c>
-      <c r="G59" s="4">
+      <c r="A59" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F59" s="5">
+        <v>800</v>
+      </c>
+      <c r="G59" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="60" ht="14.7" customHeight="1">
-      <c r="A60" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F60" s="4">
-        <v>800</v>
-      </c>
-      <c r="G60" s="4">
+      <c r="A60" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5">
+        <v>800</v>
+      </c>
+      <c r="G60" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="61" ht="14.7" customHeight="1">
-      <c r="A61" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="B61" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="F61" s="4">
-        <v>800</v>
-      </c>
-      <c r="G61" s="4">
+      <c r="A61" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="F61" s="5">
+        <v>800</v>
+      </c>
+      <c r="G61" s="5">
         <v>0</v>
       </c>
     </row>
